--- a/tut05/output/0501CS33.xlsx
+++ b/tut05/output/0501CS33.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.183673469387755</v>
+        <v>6.18</v>
       </c>
       <c r="C6" t="n">
-        <v>5.704545454545454</v>
+        <v>5.7</v>
       </c>
       <c r="D6" t="n">
-        <v>6.255813953488372</v>
+        <v>6.26</v>
       </c>
       <c r="E6" t="n">
-        <v>6.659574468085107</v>
+        <v>6.66</v>
       </c>
       <c r="F6" t="n">
-        <v>6.428571428571429</v>
+        <v>6.43</v>
       </c>
       <c r="G6" t="n">
-        <v>5.875</v>
+        <v>5.88</v>
       </c>
       <c r="H6" t="n">
-        <v>6.512195121951219</v>
+        <v>6.51</v>
       </c>
       <c r="I6" t="n">
         <v>6.15</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.183673469387755</v>
+        <v>6.18</v>
       </c>
       <c r="C8" t="n">
-        <v>5.956989247311828</v>
+        <v>5.96</v>
       </c>
       <c r="D8" t="n">
-        <v>6.051470588235294</v>
+        <v>6.05</v>
       </c>
       <c r="E8" t="n">
-        <v>6.207650273224044</v>
+        <v>6.21</v>
       </c>
       <c r="F8" t="n">
-        <v>6.248888888888889</v>
+        <v>6.25</v>
       </c>
       <c r="G8" t="n">
-        <v>6.192452830188679</v>
+        <v>6.19</v>
       </c>
       <c r="H8" t="n">
-        <v>6.235294117647059</v>
+        <v>6.24</v>
       </c>
       <c r="I8" t="n">
-        <v>6.22543352601156</v>
+        <v>6.23</v>
       </c>
     </row>
   </sheetData>
